--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_15_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3663190.324126221</v>
+        <v>3658885.984316352</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,61 +673,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>124.0596109626757</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>212.2897156032232</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.7138800015061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>263.7138800015061</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>43.81176814601035</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>173.4063010743179</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>103.6413059820983</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>181.3033593560044</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>130.6671941819008</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015061</v>
+        <v>212.568965117905</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>60.80101065419154</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>182.802773287799</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,22 +1062,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.4687790557688</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>147.6357361135216</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.1605574586762</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>265.0095407452868</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>91.06264775160689</v>
+        <v>91.06264775161269</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.24979976115242</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>68.74506304142996</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>50.34571932180025</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H16" t="n">
-        <v>13.37642554686322</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>94.05355358057936</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>187.6271126132399</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>250.1067528667074</v>
       </c>
       <c r="X25" t="n">
-        <v>160.9670287625433</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784678</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>187.2551470558694</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187858</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>38.19083539427159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,10 +3082,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>139.1630968205468</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.8415422301055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>185.4048731212365</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>141.1329474887994</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>121.8000472740347</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.3840804899463</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C2" t="n">
-        <v>307.3840804899463</v>
+        <v>153.355349495461</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899463</v>
+        <v>153.355349495461</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899463</v>
+        <v>153.355349495461</v>
       </c>
       <c r="F2" t="n">
-        <v>300.4385797407429</v>
+        <v>146.4098487462576</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4330,22 +4330,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052544</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515905</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V2" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571243</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635.8687277931041</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C3" t="n">
-        <v>461.415698511977</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D3" t="n">
-        <v>312.4812888507258</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>312.4812888507258</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4415,16 +4415,16 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>287.8512331313449</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>478.4519222278687</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>843.6290265580581</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>843.6290265580581</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>843.6290265580581</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>843.6290265580581</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y3" t="n">
-        <v>635.8687277931041</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.598167514283</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C4" t="n">
-        <v>294.598167514283</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D4" t="n">
-        <v>144.4815281019473</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
         <v>21.09711040012049</v>
@@ -4491,16 +4491,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551008</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4515,25 +4515,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>743.3802975558305</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>743.3802975558305</v>
+        <v>871.7208135858181</v>
       </c>
       <c r="V4" t="n">
-        <v>743.3802975558305</v>
+        <v>617.0363253799312</v>
       </c>
       <c r="W4" t="n">
-        <v>743.3802975558305</v>
+        <v>350.6586688127533</v>
       </c>
       <c r="X4" t="n">
-        <v>515.3907466578131</v>
+        <v>350.6586688127533</v>
       </c>
       <c r="Y4" t="n">
-        <v>294.598167514283</v>
+        <v>350.6586688127533</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="C5" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E5" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>432.4256445709457</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="W5" t="n">
-        <v>432.4256445709457</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X5" t="n">
-        <v>432.4256445709457</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.2030010008617</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="C6" t="n">
-        <v>564.7499717197347</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>564.7499717197347</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>405.5125167142792</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>993.4403577290634</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>993.4403577290634</v>
+        <v>851.8703702655432</v>
       </c>
       <c r="W6" t="n">
-        <v>739.2030010008617</v>
+        <v>851.8703702655432</v>
       </c>
       <c r="X6" t="n">
-        <v>739.2030010008617</v>
+        <v>644.0188700600104</v>
       </c>
       <c r="Y6" t="n">
-        <v>739.2030010008617</v>
+        <v>644.0188700600104</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>656.1856968390199</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C7" t="n">
-        <v>487.249513911113</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D7" t="n">
-        <v>337.1328744987773</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>337.1328744987773</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2429270008669</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4737,10 +4737,10 @@
         <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640389</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>656.1856968390199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>656.1856968390199</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>656.1856968390199</v>
+        <v>905.7285138307504</v>
       </c>
       <c r="Y7" t="n">
-        <v>656.1856968390199</v>
+        <v>684.9359346872203</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1410.357830041762</v>
+        <v>1842.900032935089</v>
       </c>
       <c r="C8" t="n">
-        <v>1041.39531310135</v>
+        <v>1473.937515994677</v>
       </c>
       <c r="D8" t="n">
-        <v>926.0816186986469</v>
+        <v>1115.671817387926</v>
       </c>
       <c r="E8" t="n">
-        <v>540.2933661004026</v>
+        <v>729.8835647896822</v>
       </c>
       <c r="F8" t="n">
-        <v>129.307461310795</v>
+        <v>318.8976600000746</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467164</v>
+        <v>187.3702251467166</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607407</v>
+        <v>442.1757437607416</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045901</v>
+        <v>795.1862829045926</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995223</v>
+        <v>1219.647962995226</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940589</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550191</v>
+        <v>2359.356530550196</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661156</v>
+        <v>2540.564622661162</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="V8" t="n">
-        <v>2560.562760342775</v>
+        <v>2229.49987299921</v>
       </c>
       <c r="W8" t="n">
-        <v>2560.562760342775</v>
+        <v>2229.49987299921</v>
       </c>
       <c r="X8" t="n">
-        <v>2187.097002081695</v>
+        <v>2229.49987299921</v>
       </c>
       <c r="Y8" t="n">
-        <v>1796.957670105884</v>
+        <v>2229.49987299921</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.50972080107</v>
+        <v>929.5097208010759</v>
       </c>
       <c r="C9" t="n">
-        <v>755.056691519943</v>
+        <v>755.0566915199489</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586917</v>
+        <v>606.1222818586976</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532362</v>
+        <v>446.8848268532421</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801212</v>
+        <v>300.3502688801271</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763094</v>
+        <v>163.6480708763153</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993882</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507231</v>
+        <v>119.8116472177663</v>
       </c>
       <c r="K9" t="n">
-        <v>422.9158793018217</v>
+        <v>304.4086435688653</v>
       </c>
       <c r="L9" t="n">
-        <v>821.3093758144556</v>
+        <v>598.9446270023464</v>
       </c>
       <c r="M9" t="n">
-        <v>1455.048658999292</v>
+        <v>1232.683910187185</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471861</v>
+        <v>1866.423193372023</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459249</v>
+        <v>2198.310003359412</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888873</v>
+        <v>2445.345361789036</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442618</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342775</v>
+        <v>2560.562760342781</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251691</v>
+        <v>2424.826280251697</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.81647768534</v>
+        <v>2230.816477685345</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751569</v>
+        <v>2002.726321751575</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519826</v>
+        <v>1767.574213519832</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791625</v>
+        <v>1513.336856791631</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586092</v>
+        <v>1305.485356586098</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821138</v>
+        <v>1097.725057821144</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.6507128244615</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>120.6507128244615</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>120.6507128244615</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>120.6507128244615</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068555</v>
+        <v>51.21125520685563</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380112</v>
+        <v>76.63468308380138</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676561</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368909</v>
+        <v>523.3850043368916</v>
       </c>
       <c r="M10" t="n">
-        <v>823.865389990402</v>
+        <v>823.8653899904029</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616497</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412617</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634451</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108856</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1113.534501108856</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="V10" t="n">
-        <v>858.8500129029695</v>
+        <v>1584.91488353615</v>
       </c>
       <c r="W10" t="n">
-        <v>569.432842866009</v>
+        <v>1295.497713499189</v>
       </c>
       <c r="X10" t="n">
-        <v>341.4432919679916</v>
+        <v>1067.508162601172</v>
       </c>
       <c r="Y10" t="n">
-        <v>120.6507128244615</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5038,10 +5038,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1643.635426776346</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1354.218256739386</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5278,22 +5278,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>336.3048548543961</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>189.4149073564858</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>189.4149073564858</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5594,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>417.7969033733013</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>270.906955875391</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>270.906955875391</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5770,34 +5770,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5986,28 +5986,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6031,7 +6031,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6068,25 +6068,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3112.537432147379</v>
+        <v>550.637687073287</v>
       </c>
       <c r="C25" t="n">
-        <v>2943.601249219472</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>2793.484609807137</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.571434467152</v>
+        <v>1181.068281945074</v>
       </c>
       <c r="X25" t="n">
-        <v>3514.978476121149</v>
+        <v>953.0787310470569</v>
       </c>
       <c r="Y25" t="n">
-        <v>3294.185896977619</v>
+        <v>732.2861519035267</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6293,40 +6293,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6490,22 +6490,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1649.809252446351</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1360.39208240939</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1132.402531511373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,22 +6700,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6727,19 +6727,19 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583948</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243706</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4080.762364661622</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3826.077876455735</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3826.077876455735</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3598.088325557718</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7028,16 +7028,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3091.514342801865</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3388.154264430192</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3273.162807632105</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>922.1728707402528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7648,22 +7648,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>216.8470138298251</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>51.53815565544045</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446524</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>26.13373767211354</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.386756822270371</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>104.9065788678315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.4068835459964</v>
+        <v>273.4068835459972</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538075</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348516</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H16" t="n">
-        <v>126.9182872993607</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>46.24115926564453</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.9575407388549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>36.41624546988359</v>
       </c>
       <c r="X25" t="n">
-        <v>64.74262662649386</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>30.15030327141886</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>213.9468079295564</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>147.0213775686973</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.7431111219893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>101.1181252153545</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>7.482525529412953</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>43.72409101823415</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654866.4392271898</v>
+        <v>654866.4392271896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654866.4392271896</v>
+        <v>654866.4392271898</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710695</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.269705506</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055064</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="K2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26368,22 +26368,22 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.03523461802979e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580771</v>
+        <v>390680.0076580783</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060695</v>
+        <v>507909.2320606938</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.25865913755011e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,19 +26392,19 @@
         <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
-        <v>3.861628258540616e-11</v>
+        <v>6.554903942240595e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101715</v>
+        <v>95270.23779101751</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954695</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.823570114759994e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>249437.9663307045</v>
       </c>
       <c r="D4" t="n">
-        <v>138058.0537608937</v>
+        <v>138058.0537608933</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26435,16 +26435,16 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768861</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768952</v>
+        <v>9947.144321768979</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768936</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
@@ -26456,7 +26456,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26472,10 +26472,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756788</v>
+        <v>92902.86757567893</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212584.0687550944</v>
+        <v>-212584.0687550945</v>
       </c>
       <c r="C6" t="n">
-        <v>467503.9118360988</v>
+        <v>467503.9118360986</v>
       </c>
       <c r="D6" t="n">
-        <v>158348.75237642</v>
+        <v>158348.7523764182</v>
       </c>
       <c r="E6" t="n">
-        <v>147810.3634991351</v>
+        <v>147462.9842447791</v>
       </c>
       <c r="F6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054727</v>
       </c>
       <c r="G6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054734</v>
       </c>
       <c r="H6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054725</v>
       </c>
       <c r="I6" t="n">
-        <v>655719.5955598301</v>
+        <v>655372.2163054731</v>
       </c>
       <c r="J6" t="n">
-        <v>586720.4411407163</v>
+        <v>586373.0618863587</v>
       </c>
       <c r="K6" t="n">
-        <v>655719.5955598298</v>
+        <v>655372.2163054725</v>
       </c>
       <c r="L6" t="n">
-        <v>560449.3577688124</v>
+        <v>560101.9785144554</v>
       </c>
       <c r="M6" t="n">
-        <v>523001.6198643603</v>
+        <v>522654.2406100036</v>
       </c>
       <c r="N6" t="n">
-        <v>655719.5955598296</v>
+        <v>655372.2163054729</v>
       </c>
       <c r="O6" t="n">
-        <v>655719.59555983</v>
+        <v>655372.2163054729</v>
       </c>
       <c r="P6" t="n">
-        <v>655719.5955598298</v>
+        <v>655372.2163054728</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627814</v>
+        <v>933.7024595627823</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856938</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26928,13 +26928,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.029462643449992e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26943,10 +26943,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.029462643449992e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26962,25 +26962,25 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.647445793304</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788923</v>
+        <v>434.2730407788914</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.42132258585717e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139546</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139546</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,13 +27165,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.029462643449992e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841891</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139546</v>
+        <v>532.5675980139531</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>288.7745636830343</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776185</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.6689735381485</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27466,19 +27466,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>182.0427193575443</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>32.36668412915958</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888209</v>
@@ -27587,25 +27587,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>119.5730398974675</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>104.9552711466731</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>276.2088515598107</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545474</v>
+        <v>173.6689735381486</v>
       </c>
     </row>
     <row r="6">
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,16 +27751,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>165.0534768493631</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>49.99781386162627</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
         <v>122.1505735248085</v>
@@ -27827,22 +27827,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>80.66886426805922</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>78.07391927551555</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>240.5224841620067</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>146.5396190429627</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465045</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
@@ -27912,16 +27912,16 @@
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27949,7 +27949,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164538207</v>
+        <v>1.776449164532394</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>76.67598498150129</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>235.8814704485042</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,22 +29325,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.221555270729305e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.196257465834636e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.753577726885554</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157553</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972531</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763182</v>
+        <v>477.4691627763187</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354926</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359929</v>
+        <v>659.0954050359935</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525065</v>
+        <v>669.7602577525072</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307889</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983012</v>
+        <v>539.7691690983017</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542127</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864749</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140457</v>
+        <v>85.53465245140465</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.300286218150844</v>
+        <v>0.3002862181508443</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436926</v>
+        <v>2.008341139436928</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035139</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026266</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502166</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571278</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617158</v>
+        <v>508.8678404617163</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152211</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519081</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947583</v>
+        <v>383.5050724947587</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.36298474637</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366393</v>
+        <v>37.30405581366397</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133922</v>
+        <v>8.095024154133931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752556</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840001</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.63422518415877</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954057</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772515</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490119</v>
+        <v>250.3240987490122</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.9869810046253</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708727</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.98907139398</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307409</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942739</v>
+        <v>7.194100917942746</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650319</v>
+        <v>0.09183958618650327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,7 +32314,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>746.4857620875799</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>254.8897444730604</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>560.1612034965808</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34210,10 +34210,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>509.0826837242976</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34783,19 +34783,19 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>194.0102040017881</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649638</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>238.3094620181793</v>
       </c>
       <c r="O6" t="n">
         <v>171.6550983098281</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705665</v>
+        <v>137.5343130705668</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313381</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655054</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087202</v>
+        <v>428.7491718087208</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559156</v>
+        <v>440.3471941559163</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091022</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430316</v>
+        <v>308.5361733430322</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797632</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234255</v>
+        <v>20.20013907234278</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816844</v>
+        <v>69.29332526354611</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758573</v>
+        <v>186.4616124758576</v>
       </c>
       <c r="L9" t="n">
-        <v>402.4176732450847</v>
+        <v>297.5110943772536</v>
       </c>
       <c r="M9" t="n">
-        <v>640.1406900856938</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>640.1406900856953</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074631</v>
+        <v>335.2392020074636</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804281</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603482</v>
+        <v>116.3812106603485</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783554</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873296</v>
+        <v>25.68023017873308</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641529</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254631</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.572108918665</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357662</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228576</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1440500042467</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>116.3353646931863</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>418.0271695745625</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>377.7409716409642</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
